--- a/xlsx/自然法_intext.xlsx
+++ b/xlsx/自然法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>自然法</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_自然法</t>
+    <t>正义</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_自然法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -149,15 +149,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>大憲章</t>
+    <t>大宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>獨立宣言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%B0%91%E6%94%BF%E6%B2%BB</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%8E%9F%E7%90%86</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1293,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1322,10 +1319,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1351,10 +1348,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1380,10 +1377,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1409,10 +1406,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1438,10 +1435,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1467,10 +1464,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1496,10 +1493,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1525,10 +1522,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1583,10 +1580,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1612,10 +1609,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1641,10 +1638,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
         <v>47</v>
-      </c>
-      <c r="F35" t="s">
-        <v>48</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1670,10 +1667,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1699,10 +1696,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1728,10 +1725,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1757,10 +1754,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1786,10 +1783,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1815,10 +1812,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1844,10 +1841,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1873,10 +1870,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
         <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1902,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1931,10 +1928,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1960,10 +1957,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -1989,10 +1986,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2018,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
